--- a/Execute Report.xlsx
+++ b/Execute Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\_VOIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\_VOISTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE15DF-E30A-4A71-92E5-DC49E79C6CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5A920-F95A-45BA-817D-3391472E7EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -646,39 +646,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,13 +677,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1052,8 +1052,8 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1073,30 +1073,30 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1107,8 +1107,8 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="32">
+      <c r="A4" s="30"/>
+      <c r="B4" s="39">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1117,13 +1117,13 @@
       <c r="D4" s="4">
         <v>7</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="46" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="12"/>
@@ -1132,9 +1132,9 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="3"/>
@@ -1147,26 +1147,26 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="3"/>
@@ -1179,13 +1179,13 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -1193,7 +1193,7 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="39">
         <v>0</v>
       </c>
       <c r="H6" s="12"/>
@@ -1204,7 +1204,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="3"/>
@@ -1217,8 +1217,8 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1236,7 +1236,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="27"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="3"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
@@ -1268,7 +1268,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="27"/>
+      <c r="P8" s="43"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="3"/>
@@ -1287,7 +1287,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="34"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1296,7 +1296,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="28"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="3"/>
@@ -29058,12 +29058,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:P3"/>
@@ -29076,6 +29070,12 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29086,7 +29086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0E6A50-F6A4-4C4E-B60E-1B8EC48799BD}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -29222,13 +29222,13 @@
       <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="19" t="s">
